--- a/Dissertacia/MyWork/Files/MatlabModeling/4_step/cF.xlsx
+++ b/Dissertacia/MyWork/Files/MatlabModeling/4_step/cF.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasilii\Documents\MyWorks\trunk\Dissertacia\MyWork\Files\MatlabModeling\4_step\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E6CC9-8D16-4DDD-9BDD-AAA548350EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0A5A54-9F25-4AD6-80D9-9743F77F031D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1650" windowWidth="28800" windowHeight="13200" xr2:uid="{DCE50BEC-92FA-4F1C-95B0-7831E94C20E5}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="23010" windowHeight="12930" xr2:uid="{DCE50BEC-92FA-4F1C-95B0-7831E94C20E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4557,7 +4561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F730A162-736F-4859-AFF9-15184EEA5DC2}">
   <dimension ref="A6:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
